--- a/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构学校数.xlsx
+++ b/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构学校数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,550 +518,220 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27096</v>
+        <v>17252</v>
       </c>
       <c r="C2" t="n">
-        <v>21138</v>
+        <v>20215</v>
       </c>
       <c r="D2" t="n">
-        <v>2060</v>
+        <v>2140</v>
       </c>
       <c r="E2" t="n">
-        <v>6042</v>
+        <v>1926</v>
       </c>
       <c r="F2" t="n">
-        <v>2079</v>
+        <v>736</v>
       </c>
       <c r="G2" t="n">
-        <v>191704</v>
+        <v>106689</v>
       </c>
       <c r="H2" t="n">
-        <v>1694</v>
+        <v>1717</v>
       </c>
       <c r="I2" t="n">
-        <v>1185</v>
+        <v>1006</v>
       </c>
       <c r="J2" t="n">
-        <v>184770</v>
+        <v>104394</v>
       </c>
       <c r="K2" t="n">
-        <v>1583</v>
+        <v>904</v>
       </c>
       <c r="L2" t="n">
-        <v>155980</v>
+        <v>85425</v>
       </c>
       <c r="M2" t="n">
-        <v>17893</v>
+        <v>17069</v>
       </c>
       <c r="N2" t="n">
-        <v>892</v>
+        <v>369</v>
       </c>
       <c r="O2" t="n">
-        <v>639</v>
+        <v>903</v>
       </c>
       <c r="P2" t="n">
-        <v>217143</v>
+        <v>129447</v>
       </c>
       <c r="Q2" t="n">
-        <v>4301</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23799</v>
+        <v>16419</v>
       </c>
       <c r="C3" t="n">
-        <v>27735</v>
+        <v>23061</v>
       </c>
       <c r="D3" t="n">
-        <v>1544</v>
+        <v>2254</v>
       </c>
       <c r="E3" t="n">
-        <v>3756</v>
+        <v>2434</v>
       </c>
       <c r="F3" t="n">
-        <v>1014</v>
+        <v>919</v>
       </c>
       <c r="G3" t="n">
-        <v>166601</v>
+        <v>103420</v>
       </c>
       <c r="H3" t="n">
-        <v>1071</v>
+        <v>2403</v>
       </c>
       <c r="I3" t="n">
-        <v>959</v>
+        <v>922</v>
       </c>
       <c r="J3" t="n">
-        <v>160924</v>
+        <v>100206</v>
       </c>
       <c r="K3" t="n">
-        <v>1321</v>
+        <v>1392</v>
       </c>
       <c r="L3" t="n">
-        <v>136054</v>
+        <v>81384</v>
       </c>
       <c r="M3" t="n">
-        <v>25232</v>
+        <v>19885</v>
       </c>
       <c r="N3" t="n">
-        <v>1921</v>
+        <v>780</v>
       </c>
       <c r="O3" t="n">
-        <v>1895</v>
+        <v>738</v>
       </c>
       <c r="P3" t="n">
-        <v>198566</v>
+        <v>129530</v>
       </c>
       <c r="Q3" t="n">
-        <v>4230</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22064</v>
+        <v>16443</v>
       </c>
       <c r="C4" t="n">
-        <v>23554</v>
+        <v>20989</v>
       </c>
       <c r="D4" t="n">
-        <v>1482</v>
+        <v>1104</v>
       </c>
       <c r="E4" t="n">
-        <v>2439</v>
+        <v>2553</v>
       </c>
       <c r="F4" t="n">
-        <v>1010</v>
+        <v>1193</v>
       </c>
       <c r="G4" t="n">
-        <v>150955</v>
+        <v>100009</v>
       </c>
       <c r="H4" t="n">
-        <v>1426</v>
+        <v>2280</v>
       </c>
       <c r="I4" t="n">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="J4" t="n">
-        <v>147492</v>
+        <v>96887</v>
       </c>
       <c r="K4" t="n">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="L4" t="n">
-        <v>124002</v>
+        <v>78164</v>
       </c>
       <c r="M4" t="n">
-        <v>21278</v>
+        <v>19063</v>
       </c>
       <c r="N4" t="n">
-        <v>1024</v>
+        <v>569</v>
       </c>
       <c r="O4" t="n">
-        <v>1168</v>
+        <v>523</v>
       </c>
       <c r="P4" t="n">
-        <v>177686</v>
+        <v>123766</v>
       </c>
       <c r="Q4" t="n">
-        <v>3177</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19880</v>
+        <v>14306</v>
       </c>
       <c r="C5" t="n">
-        <v>21878</v>
+        <v>20297</v>
       </c>
       <c r="D5" t="n">
-        <v>1089</v>
+        <v>1130</v>
       </c>
       <c r="E5" t="n">
-        <v>3271</v>
+        <v>2721</v>
       </c>
       <c r="F5" t="n">
-        <v>1069</v>
+        <v>1145</v>
       </c>
       <c r="G5" t="n">
-        <v>153303</v>
+        <v>89014</v>
       </c>
       <c r="H5" t="n">
-        <v>1262</v>
+        <v>2349</v>
       </c>
       <c r="I5" t="n">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="J5" t="n">
-        <v>149208</v>
+        <v>85245</v>
       </c>
       <c r="K5" t="n">
-        <v>1252</v>
+        <v>1172</v>
       </c>
       <c r="L5" t="n">
-        <v>128066</v>
+        <v>68590</v>
       </c>
       <c r="M5" t="n">
-        <v>20100</v>
+        <v>18391</v>
       </c>
       <c r="N5" t="n">
-        <v>824</v>
+        <v>1048</v>
       </c>
       <c r="O5" t="n">
-        <v>1398</v>
+        <v>665</v>
       </c>
       <c r="P5" t="n">
-        <v>178900</v>
+        <v>112293</v>
       </c>
       <c r="Q5" t="n">
-        <v>3719</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>19918</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20837</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2386</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2652</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1012</v>
-      </c>
-      <c r="G6" t="n">
-        <v>137827</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1599</v>
-      </c>
-      <c r="I6" t="n">
-        <v>857</v>
-      </c>
-      <c r="J6" t="n">
-        <v>134245</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1318</v>
-      </c>
-      <c r="L6" t="n">
-        <v>112728</v>
-      </c>
-      <c r="M6" t="n">
-        <v>17594</v>
-      </c>
-      <c r="N6" t="n">
-        <v>930</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1055</v>
-      </c>
-      <c r="P6" t="n">
-        <v>162049</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>18341</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20577</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2456</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1060</v>
-      </c>
-      <c r="G7" t="n">
-        <v>129443</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2107</v>
-      </c>
-      <c r="I7" t="n">
-        <v>835</v>
-      </c>
-      <c r="J7" t="n">
-        <v>126189</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1203</v>
-      </c>
-      <c r="L7" t="n">
-        <v>105741</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17752</v>
-      </c>
-      <c r="N7" t="n">
-        <v>798</v>
-      </c>
-      <c r="O7" t="n">
-        <v>845</v>
-      </c>
-      <c r="P7" t="n">
-        <v>153128</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17252</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20215</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2140</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1926</v>
-      </c>
-      <c r="F8" t="n">
-        <v>736</v>
-      </c>
-      <c r="G8" t="n">
-        <v>106689</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1717</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J8" t="n">
-        <v>104394</v>
-      </c>
-      <c r="K8" t="n">
-        <v>904</v>
-      </c>
-      <c r="L8" t="n">
-        <v>85425</v>
-      </c>
-      <c r="M8" t="n">
-        <v>17069</v>
-      </c>
-      <c r="N8" t="n">
-        <v>369</v>
-      </c>
-      <c r="O8" t="n">
-        <v>903</v>
-      </c>
-      <c r="P8" t="n">
-        <v>129447</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>16419</v>
-      </c>
-      <c r="C9" t="n">
-        <v>23061</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2254</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2434</v>
-      </c>
-      <c r="F9" t="n">
-        <v>919</v>
-      </c>
-      <c r="G9" t="n">
-        <v>103420</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2403</v>
-      </c>
-      <c r="I9" t="n">
-        <v>922</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100206</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1392</v>
-      </c>
-      <c r="L9" t="n">
-        <v>81384</v>
-      </c>
-      <c r="M9" t="n">
-        <v>19885</v>
-      </c>
-      <c r="N9" t="n">
-        <v>780</v>
-      </c>
-      <c r="O9" t="n">
-        <v>738</v>
-      </c>
-      <c r="P9" t="n">
-        <v>129530</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>16443</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20989</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1104</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2553</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1193</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100009</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2280</v>
-      </c>
-      <c r="I10" t="n">
-        <v>822</v>
-      </c>
-      <c r="J10" t="n">
-        <v>96887</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1052</v>
-      </c>
-      <c r="L10" t="n">
-        <v>78164</v>
-      </c>
-      <c r="M10" t="n">
-        <v>19063</v>
-      </c>
-      <c r="N10" t="n">
-        <v>569</v>
-      </c>
-      <c r="O10" t="n">
-        <v>523</v>
-      </c>
-      <c r="P10" t="n">
-        <v>123766</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14306</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20297</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1130</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2721</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1145</v>
-      </c>
-      <c r="G11" t="n">
-        <v>89014</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2349</v>
-      </c>
-      <c r="I11" t="n">
-        <v>776</v>
-      </c>
-      <c r="J11" t="n">
-        <v>85245</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1172</v>
-      </c>
-      <c r="L11" t="n">
-        <v>68590</v>
-      </c>
-      <c r="M11" t="n">
-        <v>18391</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1048</v>
-      </c>
-      <c r="O11" t="n">
-        <v>665</v>
-      </c>
-      <c r="P11" t="n">
-        <v>112293</v>
-      </c>
-      <c r="Q11" t="n">
         <v>2982</v>
       </c>
     </row>
